--- a/QC files/country.xlsx
+++ b/QC files/country.xlsx
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -20014,7 +20014,7 @@
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -24154,7 +24154,7 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>Near Prague</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -25366,7 +25366,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -25438,7 +25438,7 @@
       </c>
       <c r="B2084" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -29230,7 +29230,7 @@
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -32854,7 +32854,7 @@
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -32938,7 +32938,7 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -34150,7 +34150,7 @@
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
